--- a/problem-type-tables.xlsx
+++ b/problem-type-tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cchan\Visual-Search-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA2D90F-5876-4A57-A3D5-2B8E068B5ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8C01ED-355E-42F6-860B-603F7AF2558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0D2B5663-D287-49CA-BF33-E0B236A02D15}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F0ADD0-8C47-4E61-A50D-40A7B04FBD59}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142:D225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
